--- a/Wetter_com_daten.xlsx
+++ b/Wetter_com_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Projects\expWinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53910B0F-B84A-4196-A372-7B591F1727EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442DDFD-F7AF-4625-B73E-301CF61DF593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51405" yWindow="-1650" windowWidth="21645" windowHeight="15285" xr2:uid="{68521930-1CC9-4C79-979A-BA5D545C4B45}"/>
+    <workbookView xWindow="54495" yWindow="-5325" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{68521930-1CC9-4C79-979A-BA5D545C4B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Stuttgart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="19">
   <si>
     <t>Tage</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Windrichtung</t>
   </si>
   <si>
-    <t>11/20/2023</t>
-  </si>
-  <si>
     <t>Morgens</t>
   </si>
   <si>
@@ -71,36 +68,6 @@
   </si>
   <si>
     <t>Abends</t>
-  </si>
-  <si>
-    <t>11/21/2023</t>
-  </si>
-  <si>
-    <t>11/22/2023</t>
-  </si>
-  <si>
-    <t>11/23/2023</t>
-  </si>
-  <si>
-    <t>11/24/2023</t>
-  </si>
-  <si>
-    <t>11/25/2023</t>
-  </si>
-  <si>
-    <t>11/26/2023</t>
-  </si>
-  <si>
-    <t>11/27/2023</t>
-  </si>
-  <si>
-    <t>11/28/2023</t>
-  </si>
-  <si>
-    <t>11/29/2023</t>
-  </si>
-  <si>
-    <t>11/30/2023</t>
   </si>
   <si>
     <t>S</t>
@@ -221,10 +188,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -581,8 +546,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I85"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -616,15 +581,15 @@
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="A2" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -642,18 +607,18 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="19">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+      <c r="A3" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -671,18 +636,18 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
+      <c r="A4" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
@@ -700,18 +665,18 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="19">
         <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -729,18 +694,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="19">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
+      <c r="A6" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -758,18 +723,18 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
+      <c r="A7" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -787,18 +752,18 @@
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
+      <c r="A8" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -816,18 +781,18 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
+      <c r="A9" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
@@ -845,18 +810,18 @@
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
+      <c r="A10" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -874,18 +839,18 @@
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="17">
         <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
+      <c r="A11" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -903,18 +868,18 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="17">
         <v>2.9</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
+      <c r="A12" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
@@ -932,18 +897,18 @@
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="A13" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -961,18 +926,18 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -990,18 +955,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
+      <c r="A15" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -1019,18 +984,18 @@
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I15" s="17">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
+      <c r="A16" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -1048,18 +1013,18 @@
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
+      <c r="A17" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1077,18 +1042,18 @@
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
+      <c r="A18" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
@@ -1106,18 +1071,18 @@
         <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I18" s="17">
         <v>7.4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
+      <c r="A19" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -1135,18 +1100,18 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
+      <c r="A20" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1164,18 +1129,18 @@
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
+      <c r="A21" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
@@ -1193,18 +1158,18 @@
         <v>19</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I21" s="17">
         <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
+      <c r="A22" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
@@ -1222,18 +1187,18 @@
         <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" s="17">
         <v>1.4</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
+      <c r="A23" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1251,18 +1216,18 @@
         <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
+      <c r="A24" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -1280,18 +1245,18 @@
         <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I24" s="17">
         <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>10</v>
+      <c r="A25" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
@@ -1309,18 +1274,18 @@
         <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I25" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>7</v>
+      <c r="A26" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1338,18 +1303,18 @@
         <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I26" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>7</v>
+      <c r="A27" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
@@ -1367,18 +1332,18 @@
         <v>7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="17">
         <v>1.2</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
+      <c r="A28" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="5">
         <v>7</v>
@@ -1396,18 +1361,18 @@
         <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>10</v>
+      <c r="A29" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -1425,18 +1390,18 @@
         <v>19</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I29" s="17">
         <v>6.2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
+      <c r="A30" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
@@ -1454,18 +1419,18 @@
         <v>7</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I30" s="17">
         <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>10</v>
+      <c r="A31" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="5">
         <v>7</v>
@@ -1483,18 +1448,18 @@
         <v>7</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I31" s="17">
         <v>1.4</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
+      <c r="A32" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -1512,18 +1477,18 @@
         <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I32" s="17">
         <v>3.1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>7</v>
+      <c r="A33" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
@@ -1541,18 +1506,18 @@
         <v>7</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I33" s="17">
         <v>2.8</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
+      <c r="A34" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C34" s="5">
         <v>7</v>
@@ -1570,18 +1535,18 @@
         <v>8</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" s="17">
         <v>1.4</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
+      <c r="A35" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -1599,18 +1564,18 @@
         <v>15</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I35" s="17">
         <v>2.7</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
+      <c r="A36" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
@@ -1628,18 +1593,18 @@
         <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I36" s="17">
         <v>1.4</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>10</v>
+      <c r="A37" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="5">
         <v>7</v>
@@ -1657,18 +1622,18 @@
         <v>7</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I37" s="17">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>7</v>
+      <c r="A38" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -1686,18 +1651,18 @@
         <v>7</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="17">
         <v>1.6</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>7</v>
+      <c r="A39" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C39" s="5">
         <v>3</v>
@@ -1715,18 +1680,18 @@
         <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I39" s="17">
         <v>2.1</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>7</v>
+      <c r="A40" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C40" s="5">
         <v>7</v>
@@ -1744,18 +1709,18 @@
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40" s="17">
         <v>3.1</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>10</v>
+      <c r="A41" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -1773,18 +1738,18 @@
         <v>7</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I41" s="17">
         <v>1.9</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>10</v>
+      <c r="A42" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="5">
         <v>3</v>
@@ -1802,18 +1767,18 @@
         <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I42" s="17">
         <v>3.7</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>10</v>
+      <c r="A43" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C43" s="5">
         <v>7</v>
@@ -1831,18 +1796,18 @@
         <v>15</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43" s="17">
         <v>3.4</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
+      <c r="A44" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -1860,18 +1825,18 @@
         <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I44" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
+      <c r="A45" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C45" s="5">
         <v>3</v>
@@ -1889,18 +1854,18 @@
         <v>11</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I45" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>7</v>
+      <c r="A46" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C46" s="5">
         <v>7</v>
@@ -1918,18 +1883,18 @@
         <v>12</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I46" s="17">
         <v>1.6</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>10</v>
+      <c r="A47" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -1947,18 +1912,18 @@
         <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I47" s="17">
         <v>3.1</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>10</v>
+      <c r="A48" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="5">
         <v>3</v>
@@ -1976,18 +1941,18 @@
         <v>7</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>10</v>
+      <c r="A49" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="5">
         <v>7</v>
@@ -2005,18 +1970,18 @@
         <v>9</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I49" s="17">
         <v>0.7</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>7</v>
+      <c r="A50" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -2034,18 +1999,18 @@
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I50" s="17">
         <v>3.4</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>7</v>
+      <c r="A51" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C51" s="5">
         <v>3</v>
@@ -2063,18 +2028,18 @@
         <v>3</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I51" s="17">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
+      <c r="A52" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="5">
         <v>7</v>
@@ -2092,18 +2057,18 @@
         <v>7</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I52" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>10</v>
+      <c r="A53" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -2121,18 +2086,18 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I53" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>10</v>
+      <c r="A54" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
@@ -2150,18 +2115,18 @@
         <v>4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" s="17">
         <v>2.6</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>10</v>
+      <c r="A55" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="5">
         <v>7</v>
@@ -2179,18 +2144,18 @@
         <v>6</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I55" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>7</v>
+      <c r="A56" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -2208,47 +2173,47 @@
         <v>10</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>90</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="5">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>90</v>
-      </c>
-      <c r="G57" s="1">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I57" s="17">
         <v>7.1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>7</v>
+      <c r="A58" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C58" s="5">
         <v>7</v>
@@ -2266,18 +2231,18 @@
         <v>6</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I58" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>10</v>
+      <c r="A59" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -2295,18 +2260,18 @@
         <v>10</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I59" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>10</v>
+      <c r="A60" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -2324,18 +2289,18 @@
         <v>6</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I60" s="17">
         <v>1.7</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>10</v>
+      <c r="A61" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C61" s="5">
         <v>7</v>
@@ -2353,18 +2318,18 @@
         <v>6</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I61" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>7</v>
+      <c r="A62" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -2382,18 +2347,18 @@
         <v>2</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I62" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>7</v>
+      <c r="A63" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
@@ -2411,18 +2376,18 @@
         <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I63" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>7</v>
+      <c r="A64" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C64" s="5">
         <v>7</v>
@@ -2440,18 +2405,18 @@
         <v>9</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I64" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>10</v>
+      <c r="A65" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -2469,18 +2434,18 @@
         <v>2</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I65" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>10</v>
+      <c r="A66" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
@@ -2498,18 +2463,18 @@
         <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I66" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>10</v>
+      <c r="A67" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C67" s="5">
         <v>7</v>
@@ -2527,18 +2492,18 @@
         <v>8</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I67" s="17">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>7</v>
+      <c r="A68" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -2556,18 +2521,18 @@
         <v>5</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I68" s="17">
         <v>10.8</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>7</v>
+      <c r="A69" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
@@ -2585,18 +2550,18 @@
         <v>5</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I69" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>7</v>
+      <c r="A70" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C70" s="5">
         <v>7</v>
@@ -2614,18 +2579,18 @@
         <v>7</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I70" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>10</v>
+      <c r="A71" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -2643,18 +2608,18 @@
         <v>6</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I71" s="17">
         <v>11.3</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>10</v>
+      <c r="A72" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
@@ -2672,18 +2637,18 @@
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I72" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>10</v>
+      <c r="A73" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C73" s="5">
         <v>7</v>
@@ -2701,18 +2666,18 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I73" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>7</v>
+      <c r="A74" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -2730,18 +2695,18 @@
         <v>11</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I74" s="17">
         <v>1.4</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>7</v>
+      <c r="A75" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
@@ -2759,18 +2724,18 @@
         <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I75" s="17">
         <v>0.3</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>7</v>
+      <c r="A76" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C76" s="5">
         <v>7</v>
@@ -2788,18 +2753,18 @@
         <v>6</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I76" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>10</v>
+      <c r="A77" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -2817,18 +2782,18 @@
         <v>11</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I77" s="17">
         <v>1.6</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>10</v>
+      <c r="A78" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -2846,18 +2811,18 @@
         <v>4</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I78" s="17">
         <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>10</v>
+      <c r="A79" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C79" s="5">
         <v>7</v>
@@ -2875,18 +2840,18 @@
         <v>6</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I79" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>7</v>
+      <c r="A80" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -2904,18 +2869,18 @@
         <v>4</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I80" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>7</v>
+      <c r="A81" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <v>3</v>
@@ -2933,18 +2898,18 @@
         <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>7</v>
+      <c r="A82" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="5">
         <v>7</v>
@@ -2962,18 +2927,18 @@
         <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I82" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>10</v>
+      <c r="A83" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -2991,18 +2956,18 @@
         <v>4</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I83" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>10</v>
+      <c r="A84" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <v>3</v>
@@ -3020,18 +2985,18 @@
         <v>16</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I84" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>10</v>
+      <c r="A85" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C85" s="5">
         <v>7</v>
@@ -3049,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I85" s="17">
         <v>0</v>
@@ -3066,7 +3031,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I85"/>
+      <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,10 +3041,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3100,15 +3065,15 @@
         <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="A2" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -3126,18 +3091,18 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+      <c r="A3" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -3155,18 +3120,18 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
+      <c r="A4" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
@@ -3184,18 +3149,18 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3213,18 +3178,18 @@
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
+      <c r="A6" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -3242,18 +3207,18 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
+      <c r="A7" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -3271,18 +3236,18 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
+      <c r="A8" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3300,18 +3265,18 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I8" s="12">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
+      <c r="A9" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
@@ -3329,18 +3294,18 @@
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
+      <c r="A10" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -3358,18 +3323,18 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
+      <c r="A11" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3387,18 +3352,18 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
+      <c r="A12" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
@@ -3416,18 +3381,18 @@
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="A13" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -3445,18 +3410,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3474,18 +3439,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I14" s="12">
         <v>5.2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
+      <c r="A15" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -3503,18 +3468,18 @@
         <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
+      <c r="A16" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -3532,18 +3497,18 @@
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
+      <c r="A17" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3561,18 +3526,18 @@
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
+      <c r="A18" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
@@ -3590,18 +3555,18 @@
         <v>8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
+      <c r="A19" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -3619,18 +3584,18 @@
         <v>7</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
+      <c r="A20" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3648,18 +3613,18 @@
         <v>8</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I20" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
+      <c r="A21" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
@@ -3677,18 +3642,18 @@
         <v>7</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I21" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
+      <c r="A22" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
@@ -3706,18 +3671,18 @@
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I22" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
+      <c r="A23" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -3735,18 +3700,18 @@
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I23" s="12">
         <v>2.6</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
+      <c r="A24" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -3764,18 +3729,18 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I24" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>10</v>
+      <c r="A25" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
@@ -3793,18 +3758,18 @@
         <v>7</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I25" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>7</v>
+      <c r="A26" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3822,18 +3787,18 @@
         <v>8</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I26" s="16">
         <v>6.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>7</v>
+      <c r="A27" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
@@ -3851,18 +3816,18 @@
         <v>7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
+      <c r="A28" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="5">
         <v>7</v>
@@ -3880,18 +3845,18 @@
         <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I28" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>10</v>
+      <c r="A29" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -3909,18 +3874,18 @@
         <v>8</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I29" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
+      <c r="A30" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
@@ -3938,18 +3903,18 @@
         <v>6</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I30" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>10</v>
+      <c r="A31" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="5">
         <v>7</v>
@@ -3967,18 +3932,18 @@
         <v>7</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I31" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
+      <c r="A32" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -3996,18 +3961,18 @@
         <v>8</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I32" s="12">
         <v>5.9</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>7</v>
+      <c r="A33" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
@@ -4025,18 +3990,18 @@
         <v>6</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
+      <c r="A34" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C34" s="5">
         <v>7</v>
@@ -4054,18 +4019,18 @@
         <v>7</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I34" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
+      <c r="A35" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -4083,18 +4048,18 @@
         <v>8</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I35" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
+      <c r="A36" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
@@ -4112,18 +4077,18 @@
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I36" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>10</v>
+      <c r="A37" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="5">
         <v>7</v>
@@ -4141,18 +4106,18 @@
         <v>7</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I37" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>7</v>
+      <c r="A38" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -4170,18 +4135,18 @@
         <v>7</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="12">
         <v>8.6</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>7</v>
+      <c r="A39" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C39" s="5">
         <v>3</v>
@@ -4199,18 +4164,18 @@
         <v>7</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I39" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>7</v>
+      <c r="A40" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C40" s="5">
         <v>7</v>
@@ -4228,18 +4193,18 @@
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I40" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>10</v>
+      <c r="A41" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4257,18 +4222,18 @@
         <v>6</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I41" s="12">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>10</v>
+      <c r="A42" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="5">
         <v>3</v>
@@ -4286,18 +4251,18 @@
         <v>7</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I42" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>10</v>
+      <c r="A43" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C43" s="5">
         <v>7</v>
@@ -4315,18 +4280,18 @@
         <v>7</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I43" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
+      <c r="A44" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -4344,18 +4309,18 @@
         <v>6</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I44" s="12">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
+      <c r="A45" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C45" s="5">
         <v>3</v>
@@ -4373,18 +4338,18 @@
         <v>7</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I45" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>7</v>
+      <c r="A46" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C46" s="5">
         <v>7</v>
@@ -4402,18 +4367,18 @@
         <v>7</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I46" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>10</v>
+      <c r="A47" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -4431,18 +4396,18 @@
         <v>6</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I47" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>10</v>
+      <c r="A48" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="5">
         <v>3</v>
@@ -4460,18 +4425,18 @@
         <v>8</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>10</v>
+      <c r="A49" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="5">
         <v>7</v>
@@ -4489,18 +4454,18 @@
         <v>7</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I49" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>7</v>
+      <c r="A50" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -4518,18 +4483,18 @@
         <v>8</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I50" s="12">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>7</v>
+      <c r="A51" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C51" s="5">
         <v>3</v>
@@ -4547,18 +4512,18 @@
         <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I51" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
+      <c r="A52" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="5">
         <v>7</v>
@@ -4576,18 +4541,18 @@
         <v>7</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I52" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>10</v>
+      <c r="A53" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -4605,18 +4570,18 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I53" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>10</v>
+      <c r="A54" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
@@ -4634,18 +4599,18 @@
         <v>6</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I54" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>10</v>
+      <c r="A55" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="5">
         <v>7</v>
@@ -4663,18 +4628,18 @@
         <v>7</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I55" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>7</v>
+      <c r="A56" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -4692,18 +4657,18 @@
         <v>10</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I56" s="12">
         <v>8.5</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>7</v>
+      <c r="A57" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C57" s="5">
         <v>3</v>
@@ -4721,18 +4686,18 @@
         <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I57" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>7</v>
+      <c r="A58" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C58" s="5">
         <v>7</v>
@@ -4750,18 +4715,18 @@
         <v>7</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I58" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>10</v>
+      <c r="A59" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -4779,18 +4744,18 @@
         <v>10</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I59" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>10</v>
+      <c r="A60" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -4808,18 +4773,18 @@
         <v>6</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I60" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>10</v>
+      <c r="A61" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C61" s="5">
         <v>7</v>
@@ -4837,18 +4802,18 @@
         <v>7</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I61" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>7</v>
+      <c r="A62" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -4866,18 +4831,18 @@
         <v>7</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I62" s="12">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>7</v>
+      <c r="A63" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
@@ -4895,18 +4860,18 @@
         <v>7</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I63" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>7</v>
+      <c r="A64" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C64" s="5">
         <v>7</v>
@@ -4924,18 +4889,18 @@
         <v>6</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I64" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>10</v>
+      <c r="A65" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -4953,18 +4918,18 @@
         <v>7</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I65" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>10</v>
+      <c r="A66" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
@@ -4982,18 +4947,18 @@
         <v>7</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I66" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>10</v>
+      <c r="A67" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C67" s="5">
         <v>7</v>
@@ -5011,18 +4976,18 @@
         <v>7</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I67" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>7</v>
+      <c r="A68" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -5040,18 +5005,18 @@
         <v>7</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I68" s="12">
         <v>8.9</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>7</v>
+      <c r="A69" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
@@ -5069,18 +5034,18 @@
         <v>7</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I69" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>7</v>
+      <c r="A70" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C70" s="5">
         <v>7</v>
@@ -5098,18 +5063,18 @@
         <v>6</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I70" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>10</v>
+      <c r="A71" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -5127,18 +5092,18 @@
         <v>7</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I71" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>10</v>
+      <c r="A72" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
@@ -5156,18 +5121,18 @@
         <v>7</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I72" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>10</v>
+      <c r="A73" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C73" s="5">
         <v>7</v>
@@ -5185,18 +5150,18 @@
         <v>6</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I73" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>7</v>
+      <c r="A74" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -5214,18 +5179,18 @@
         <v>7</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I74" s="12">
         <v>11.8</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>7</v>
+      <c r="A75" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
@@ -5243,18 +5208,18 @@
         <v>7</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I75" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>7</v>
+      <c r="A76" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C76" s="5">
         <v>7</v>
@@ -5272,18 +5237,18 @@
         <v>6</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I76" s="12">
         <v>3.3</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>10</v>
+      <c r="A77" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -5301,18 +5266,18 @@
         <v>7</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I77" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>10</v>
+      <c r="A78" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -5330,18 +5295,18 @@
         <v>7</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I78" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>10</v>
+      <c r="A79" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C79" s="5">
         <v>7</v>
@@ -5359,18 +5324,18 @@
         <v>6</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I79" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>7</v>
+      <c r="A80" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -5388,18 +5353,18 @@
         <v>7</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I80" s="12">
         <v>10.7</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>7</v>
+      <c r="A81" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <v>3</v>
@@ -5417,18 +5382,18 @@
         <v>7</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I81" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>7</v>
+      <c r="A82" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="5">
         <v>7</v>
@@ -5446,18 +5411,18 @@
         <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I82" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>10</v>
+      <c r="A83" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -5475,18 +5440,18 @@
         <v>7</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I83" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>10</v>
+      <c r="A84" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <v>3</v>
@@ -5504,18 +5469,18 @@
         <v>7</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I84" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>10</v>
+      <c r="A85" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C85" s="5">
         <v>7</v>
@@ -5533,7 +5498,7 @@
         <v>6</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I85" s="12">
         <v>3.6</v>
@@ -5549,8 +5514,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5560,10 +5525,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -5584,15 +5549,15 @@
         <v>5</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="A2" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -5610,18 +5575,18 @@
         <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+      <c r="A3" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -5639,18 +5604,18 @@
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
+      <c r="A4" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
@@ -5668,18 +5633,18 @@
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -5697,18 +5662,18 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I5" s="10">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
+      <c r="A6" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -5726,18 +5691,18 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
+      <c r="A7" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -5755,18 +5720,18 @@
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
+      <c r="A8" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -5784,18 +5749,18 @@
         <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
+      <c r="A9" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
@@ -5813,18 +5778,18 @@
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
+      <c r="A10" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -5842,18 +5807,18 @@
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
+      <c r="A11" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -5871,18 +5836,18 @@
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
+      <c r="A12" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
@@ -5900,18 +5865,18 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="A13" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -5929,18 +5894,18 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -5958,18 +5923,18 @@
         <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
+      <c r="A15" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -5987,18 +5952,18 @@
         <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
+      <c r="A16" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -6016,18 +5981,18 @@
         <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
+      <c r="A17" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -6045,18 +6010,18 @@
         <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
+      <c r="A18" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
@@ -6074,18 +6039,18 @@
         <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
+      <c r="A19" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -6103,18 +6068,18 @@
         <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
+      <c r="A20" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -6132,18 +6097,18 @@
         <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
+      <c r="A21" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
@@ -6161,18 +6126,18 @@
         <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
+      <c r="A22" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
@@ -6190,18 +6155,18 @@
         <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
+      <c r="A23" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -6219,18 +6184,18 @@
         <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I23" s="8">
         <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
+      <c r="A24" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -6248,18 +6213,18 @@
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>10</v>
+      <c r="A25" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
@@ -6277,18 +6242,18 @@
         <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>7</v>
+      <c r="A26" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -6306,18 +6271,18 @@
         <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>7</v>
+      <c r="A27" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
@@ -6335,18 +6300,18 @@
         <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
+      <c r="A28" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="5">
         <v>7</v>
@@ -6364,18 +6329,18 @@
         <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>10</v>
+      <c r="A29" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -6393,18 +6358,18 @@
         <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I29" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
+      <c r="A30" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
@@ -6422,18 +6387,18 @@
         <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I30" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>10</v>
+      <c r="A31" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="5">
         <v>7</v>
@@ -6451,18 +6416,18 @@
         <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
+      <c r="A32" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -6480,18 +6445,18 @@
         <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>7</v>
+      <c r="A33" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
@@ -6509,18 +6474,18 @@
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
+      <c r="A34" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C34" s="5">
         <v>7</v>
@@ -6538,18 +6503,18 @@
         <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
+      <c r="A35" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -6567,18 +6532,18 @@
         <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
+      <c r="A36" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
@@ -6596,18 +6561,18 @@
         <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>10</v>
+      <c r="A37" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="5">
         <v>7</v>
@@ -6625,18 +6590,18 @@
         <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I37" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>7</v>
+      <c r="A38" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -6654,18 +6619,18 @@
         <v>24</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>7</v>
+      <c r="A39" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C39" s="5">
         <v>3</v>
@@ -6683,18 +6648,18 @@
         <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I39" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>7</v>
+      <c r="A40" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C40" s="5">
         <v>7</v>
@@ -6712,18 +6677,18 @@
         <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>10</v>
+      <c r="A41" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -6741,18 +6706,18 @@
         <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I41" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>10</v>
+      <c r="A42" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="5">
         <v>3</v>
@@ -6770,18 +6735,18 @@
         <v>8</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I42" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>10</v>
+      <c r="A43" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C43" s="5">
         <v>7</v>
@@ -6799,18 +6764,18 @@
         <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I43" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
+      <c r="A44" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -6828,18 +6793,18 @@
         <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
+      <c r="A45" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C45" s="5">
         <v>3</v>
@@ -6857,18 +6822,18 @@
         <v>10</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I45" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>7</v>
+      <c r="A46" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C46" s="5">
         <v>7</v>
@@ -6886,18 +6851,18 @@
         <v>12</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I46" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>10</v>
+      <c r="A47" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -6915,18 +6880,18 @@
         <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>10</v>
+      <c r="A48" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="5">
         <v>3</v>
@@ -6944,18 +6909,18 @@
         <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I48" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>10</v>
+      <c r="A49" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="5">
         <v>7</v>
@@ -6973,18 +6938,18 @@
         <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I49" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>7</v>
+      <c r="A50" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -7002,18 +6967,18 @@
         <v>7</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>7</v>
+      <c r="A51" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C51" s="5">
         <v>3</v>
@@ -7031,18 +6996,18 @@
         <v>15</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I51" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
+      <c r="A52" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="5">
         <v>7</v>
@@ -7060,18 +7025,18 @@
         <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>10</v>
+      <c r="A53" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -7089,18 +7054,18 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>10</v>
+      <c r="A54" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
@@ -7118,18 +7083,18 @@
         <v>6</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>10</v>
+      <c r="A55" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="5">
         <v>7</v>
@@ -7147,18 +7112,18 @@
         <v>15</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I55" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>7</v>
+      <c r="A56" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -7176,18 +7141,18 @@
         <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>7</v>
+      <c r="A57" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C57" s="5">
         <v>3</v>
@@ -7205,18 +7170,18 @@
         <v>5</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I57" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>7</v>
+      <c r="A58" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C58" s="5">
         <v>7</v>
@@ -7234,18 +7199,18 @@
         <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I58" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>10</v>
+      <c r="A59" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -7263,18 +7228,18 @@
         <v>9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I59" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>10</v>
+      <c r="A60" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -7292,18 +7257,18 @@
         <v>6</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I60" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>10</v>
+      <c r="A61" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C61" s="5">
         <v>7</v>
@@ -7321,18 +7286,18 @@
         <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I61" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>7</v>
+      <c r="A62" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -7350,18 +7315,18 @@
         <v>11</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I62" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>7</v>
+      <c r="A63" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
@@ -7379,18 +7344,18 @@
         <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I63" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>7</v>
+      <c r="A64" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C64" s="5">
         <v>7</v>
@@ -7408,18 +7373,18 @@
         <v>15</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I64" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>10</v>
+      <c r="A65" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -7437,18 +7402,18 @@
         <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I65" s="8">
         <v>1.7</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>10</v>
+      <c r="A66" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C66" s="5">
         <v>3</v>
@@ -7466,18 +7431,18 @@
         <v>10</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I66" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>10</v>
+      <c r="A67" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C67" s="5">
         <v>7</v>
@@ -7495,18 +7460,18 @@
         <v>15</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I67" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>7</v>
+      <c r="A68" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -7524,18 +7489,18 @@
         <v>6</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I68" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>7</v>
+      <c r="A69" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
@@ -7553,18 +7518,18 @@
         <v>10</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I69" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>7</v>
+      <c r="A70" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C70" s="5">
         <v>7</v>
@@ -7582,18 +7547,18 @@
         <v>13</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I70" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>10</v>
+      <c r="A71" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -7611,18 +7576,18 @@
         <v>7</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I71" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>10</v>
+      <c r="A72" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
@@ -7640,18 +7605,18 @@
         <v>8</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I72" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6">
-        <v>44938</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>10</v>
+      <c r="A73" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C73" s="5">
         <v>7</v>
@@ -7669,18 +7634,18 @@
         <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I73" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>7</v>
+      <c r="A74" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -7698,18 +7663,18 @@
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I74" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>7</v>
+      <c r="A75" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
@@ -7727,18 +7692,18 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I75" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>7</v>
+      <c r="A76" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C76" s="5">
         <v>7</v>
@@ -7756,18 +7721,18 @@
         <v>18</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I76" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>10</v>
+      <c r="A77" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -7785,18 +7750,18 @@
         <v>4</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I77" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>10</v>
+      <c r="A78" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -7814,18 +7779,18 @@
         <v>11</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I78" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>10</v>
+      <c r="A79" s="7">
+        <v>45262</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C79" s="5">
         <v>7</v>
@@ -7843,18 +7808,18 @@
         <v>18</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>7</v>
+      <c r="A80" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -7872,18 +7837,18 @@
         <v>7</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I80" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>7</v>
+      <c r="A81" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <v>3</v>
@@ -7901,18 +7866,18 @@
         <v>26</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I81" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>7</v>
+      <c r="A82" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="5">
         <v>7</v>
@@ -7930,18 +7895,18 @@
         <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I82" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>10</v>
+      <c r="A83" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -7959,18 +7924,18 @@
         <v>9</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I83" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>10</v>
+      <c r="A84" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <v>3</v>
@@ -7988,18 +7953,18 @@
         <v>26</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I84" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
-        <v>44997</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>10</v>
+      <c r="A85" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C85" s="5">
         <v>7</v>
@@ -8017,7 +7982,7 @@
         <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I85" s="8">
         <v>0</v>
